--- a/nominas - plantilla.xlsx
+++ b/nominas - plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TutorialesPropios\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE080023-5F17-4198-934E-599DEAB8D892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91523AB-EEAC-439B-8BF2-F1D25BAF39C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2995,7 +2995,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3017,6 +3017,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3493,7 +3499,7 @@
   <dimension ref="A3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3527,27 +3533,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C4" s="6">
         <f>IF($B4&lt;&gt;"",VLOOKUP($B4,datos!$A$4:$G$22,2),"")</f>
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="D4" s="6">
         <f>IF($B4&lt;&gt;"",VLOOKUP($B4,datos!$A$4:$G$22,7),"")</f>
-        <v>57.599999999999994</v>
+        <v>108.80000000000001</v>
       </c>
       <c r="E4" s="6">
         <f>IF($B4&lt;&gt;"",VLOOKUP($B4,datos!$A$4:$G$22,3),"")</f>
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6">
         <f>IF(B4&lt;&gt;"",C4-D4-E4-F4,"")</f>
-        <v>824.4</v>
+        <v>1557.2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -4136,15 +4142,15 @@
       </c>
       <c r="C33" s="8">
         <f>SUM(C4:C32)</f>
-        <v>4300</v>
+        <v>5100</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" ref="D33:G33" si="1">SUM(D4:D32)</f>
-        <v>275.2</v>
+        <v>326.40000000000003</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="1"/>
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="1"/>
@@ -4152,7 +4158,7 @@
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>3938.8</v>
+        <v>4671.6000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4217,9 +4223,9 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="37.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -9237,7 +9243,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9302,7 +9308,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:F8" si="0">+$B4*D$3</f>
+        <f t="shared" ref="D4:F7" si="0">+$B4*D$3</f>
         <v>32.9</v>
       </c>
       <c r="E4" s="1">
@@ -9382,7 +9388,7 @@
         <v>800</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ref="C7:C8" si="1">+$B7*C$3</f>
+        <f t="shared" ref="C7" si="1">+$B7*C$3</f>
         <v>16</v>
       </c>
       <c r="D7" s="1">
@@ -9398,7 +9404,7 @@
         <v>0.8</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:G8" si="2">+D7+E7+F7</f>
+        <f t="shared" ref="G7" si="2">+D7+E7+F7</f>
         <v>51.2</v>
       </c>
     </row>

--- a/nominas - plantilla.xlsx
+++ b/nominas - plantilla.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TutorialesPropios\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91523AB-EEAC-439B-8BF2-F1D25BAF39C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526552B7-C3BA-4F2F-96A8-C1162A69429B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3499,7 +3499,7 @@
   <dimension ref="A3:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3561,24 +3561,24 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C5" s="6">
         <f>IF($B5&lt;&gt;"",VLOOKUP($B5,datos!$A$4:$G$22,2),"")</f>
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="D5" s="6">
         <f>IF($B5&lt;&gt;"",VLOOKUP($B5,datos!$A$4:$G$22,7),"")</f>
-        <v>108.80000000000001</v>
+        <v>57.599999999999994</v>
       </c>
       <c r="E5" s="6">
         <f>IF($B5&lt;&gt;"",VLOOKUP($B5,datos!$A$4:$G$22,3),"")</f>
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6">
         <f t="shared" ref="G5:G31" si="0">IF(B5&lt;&gt;"",C5-D5-E5-F5,"")</f>
-        <v>1557.2</v>
+        <v>824.4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3590,20 +3590,20 @@
       </c>
       <c r="C6" s="6">
         <f>IF($B6&lt;&gt;"",VLOOKUP($B6,datos!$A$4:$G$22,2),"")</f>
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="D6" s="6">
         <f>IF($B6&lt;&gt;"",VLOOKUP($B6,datos!$A$4:$G$22,7),"")</f>
-        <v>57.599999999999994</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="E6" s="6">
         <f>IF($B6&lt;&gt;"",VLOOKUP($B6,datos!$A$4:$G$22,3),"")</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>824.4</v>
+        <v>641.20000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4142,15 +4142,15 @@
       </c>
       <c r="C33" s="8">
         <f>SUM(C4:C32)</f>
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" ref="D33:G33" si="1">SUM(D4:D32)</f>
-        <v>326.40000000000003</v>
+        <v>262.40000000000003</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="1"/>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="G33" s="9">
         <f t="shared" si="1"/>
-        <v>4671.6000000000004</v>
+        <v>3755.6000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4197,17 +4197,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6A52C4A-7F07-41E3-B14D-94F49819D8B5}">
+          <x14:formula1>
+            <xm:f>empleados!$A$1:$A$1330</xm:f>
+          </x14:formula1>
+          <xm:sqref>A4:A31</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DF40F13E-0534-4B77-BA56-F4C6CB434D9D}">
           <x14:formula1>
             <xm:f>datos!$A$4:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>B4:B31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C6A52C4A-7F07-41E3-B14D-94F49819D8B5}">
-          <x14:formula1>
-            <xm:f>empleados!$A$1:$A$1330</xm:f>
-          </x14:formula1>
-          <xm:sqref>A4:A31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9243,7 +9243,7 @@
   <dimension ref="A2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9298,58 +9298,58 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>981</v>
       </c>
       <c r="B4" s="5">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="C4" s="5">
         <f>+$B4*C$3</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:F7" si="0">+$B4*D$3</f>
-        <v>32.9</v>
+        <v>42.3</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>11.200000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="G4" s="5">
         <f>+D4+E4+F4</f>
-        <v>44.800000000000004</v>
+        <v>57.599999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>981</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="C5" s="5">
         <f>+$B5*C$3</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>42.3</v>
+        <v>32.9</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>14.4</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G5" s="5">
         <f>+D5+E5+F5</f>
-        <v>57.599999999999994</v>
+        <v>44.800000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
